--- a/Dominic's Folder/TBParameters by Dominic.xlsx
+++ b/Dominic's Folder/TBParameters by Dominic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominiclam/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9758C5D-932A-514F-9FBA-8FB13EEF70C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E69293-CC7B-FA46-9650-84E78C5E8411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16720" yWindow="1120" windowWidth="31180" windowHeight="23940" xr2:uid="{C41F5DAF-C225-4B4E-97E3-E7DBFF0AC16B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31180" windowHeight="23940" xr2:uid="{C41F5DAF-C225-4B4E-97E3-E7DBFF0AC16B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>X(t)</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Parameters</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/aje/article/153/4/381/129068</t>
   </si>
 </sst>
 </file>
@@ -974,7 +977,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1516,18 +1519,26 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>39</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1545,8 +1556,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B45" r:id="rId1" xr:uid="{D5B7668D-0263-EF48-91CE-46324D81C17B}"/>
-    <hyperlink ref="B46" r:id="rId2" xr:uid="{B20440A1-11BB-9846-87EC-21D66BA433D7}"/>
+    <hyperlink ref="B46" r:id="rId1" xr:uid="{D5B7668D-0263-EF48-91CE-46324D81C17B}"/>
+    <hyperlink ref="B45" r:id="rId2" xr:uid="{B20440A1-11BB-9846-87EC-21D66BA433D7}"/>
     <hyperlink ref="D51" r:id="rId3" xr:uid="{D1DAFBC6-351A-4546-B919-D1CD3DE37803}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dominic's Folder/TBParameters by Dominic.xlsx
+++ b/Dominic's Folder/TBParameters by Dominic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominiclam/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E69293-CC7B-FA46-9650-84E78C5E8411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0552CF1B-0123-F24F-B48E-5B68EB1D8852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31180" windowHeight="23940" xr2:uid="{C41F5DAF-C225-4B4E-97E3-E7DBFF0AC16B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
   <si>
     <t>X(t)</t>
   </si>
@@ -529,13 +529,28 @@
   </si>
   <si>
     <t>https://academic.oup.com/aje/article/153/4/381/129068</t>
+  </si>
+  <si>
+    <t>q1^2 + q2^2  != 0, A proportion of annual new immigrants are latently infected, and a small percentage of them are in the highest risk to develop TB after arrival.</t>
+  </si>
+  <si>
+    <t>2(696), 4(698)</t>
+  </si>
+  <si>
+    <t>All parameters are non-negative</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>Group A streptococcus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -609,6 +624,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -631,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,6 +687,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -974,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6BF2DE-3496-A046-8C34-2272C079CECA}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1456,6 +1486,9 @@
         <v>1</v>
       </c>
       <c r="C35" s="1"/>
+      <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F35" s="2" t="s">
         <v>41</v>
       </c>
@@ -1476,89 +1509,106 @@
       </c>
     </row>
     <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
       <c r="C37" s="1"/>
-      <c r="F37" s="8"/>
+      <c r="D37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
       <c r="C38" s="1"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="12" t="s">
+      <c r="F38" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="8" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1">
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B48" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1">
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
         <v>34</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B49" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1">
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
         <v>39</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="12" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="11" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B46" r:id="rId1" xr:uid="{D5B7668D-0263-EF48-91CE-46324D81C17B}"/>
-    <hyperlink ref="B45" r:id="rId2" xr:uid="{B20440A1-11BB-9846-87EC-21D66BA433D7}"/>
-    <hyperlink ref="D51" r:id="rId3" xr:uid="{D1DAFBC6-351A-4546-B919-D1CD3DE37803}"/>
+    <hyperlink ref="B49" r:id="rId1" xr:uid="{D5B7668D-0263-EF48-91CE-46324D81C17B}"/>
+    <hyperlink ref="B48" r:id="rId2" xr:uid="{B20440A1-11BB-9846-87EC-21D66BA433D7}"/>
+    <hyperlink ref="D54" r:id="rId3" xr:uid="{D1DAFBC6-351A-4546-B919-D1CD3DE37803}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
